--- a/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Benutzeranforderungen.xlsx
+++ b/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Benutzeranforderungen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Johannes/SE-Project2018/Dokumente/02_Arbeitsbereich/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Johannes/SE-Project2018/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
   <si>
     <t>Art</t>
   </si>
@@ -64,9 +64,6 @@
 Computergegner hinzuzufügen.</t>
   </si>
   <si>
-    <t>2/Bot</t>
-  </si>
-  <si>
     <t>1/Multiplayer</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Kein</t>
   </si>
   <si>
-    <t>3/Speichern</t>
-  </si>
-  <si>
     <t>Ermöglicht eine Spielunterbrechung.
 Spiel speichern -&gt; später laden</t>
   </si>
@@ -104,9 +98,6 @@
   <si>
     <t>Kunde
 (08.10.2018)</t>
-  </si>
-  <si>
-    <t>5/Server-GUI</t>
   </si>
   <si>
     <t>Nichtfunktional</t>
@@ -147,12 +138,6 @@
   <si>
     <t>Startablauf muss 
 definiert sein.</t>
-  </si>
-  <si>
-    <t>7/Client-GUI</t>
-  </si>
-  <si>
-    <t>8/Server-Spiel</t>
   </si>
   <si>
     <t>Elemente:
@@ -185,12 +170,251 @@
 Spielablauf zu er-
 möglichen</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1/Multiplayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2/Bot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3/Speichern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4/Server-Init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/Server-GUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/Client-Init</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7/Client-GUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8/Server-Spiel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">9/Client-Spiel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Version: 1.0</t>
+    </r>
+  </si>
+  <si>
+    <t>Möglichkeiten des Clients:
+-Alle Clients verteilen nach Start des
+Spiels ihre Studenten und drücken
+dann auf "Fertig"
+-Spiel in Phasen nach Regelwerk
+-Nach jedem Abschluss der Phase I 
+wird die Anzahl der Studenten pro
+Gebäude geprüft. 
+-&gt; Ab 5 + 3 Erstis: 5 Erstis = 1 Student
+-&gt; Ab 10 + 3 Erstis: 10 Erstis = 1 Prof.</t>
+  </si>
+  <si>
+    <t>Die Client An-
+wendung muss so
+designed sein, 
+dass die Regeln
+eingehalten werden</t>
+  </si>
+  <si>
+    <t>6/Client-Init
+8/Server-Spiel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,16 +443,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,35 +488,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="37">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,7 +894,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="A33" sqref="A33:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,1042 +907,1060 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="135" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="210" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="C30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Benutzeranforderungen.xlsx
+++ b/Dokumente/02_Arbeitsbereich/04_Anforderungsspezifikation/Benutzeranforderungen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
   <si>
     <t>Art</t>
   </si>
@@ -408,6 +408,91 @@
   <si>
     <t>6/Client-Init
 8/Server-Spiel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8/Server-Spiel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.1</t>
+    </r>
+  </si>
+  <si>
+    <t>Länder die einem bestimmten 
+Spieler nicht gehören, werden nicht
+"ausgegraut", sondern in den Farben
+des entsprechenden Besitzers ange-
+zeigt</t>
+  </si>
+  <si>
+    <t>Spart Ressourcen,
+da jedem Client die
+gleiche Spielkarte
+angezeigt wird</t>
+  </si>
+  <si>
+    <t>Bosin
+(10.10.2018)</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/Server-GUI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Version: 1.1</t>
+    </r>
+  </si>
+  <si>
+    <t>Erste Anzeige sind zwei Buttons zur
+Auswahl: neues Spiel und Spiel
+laden</t>
+  </si>
+  <si>
+    <t>Die Unterscheidung
+ist nötig, da nur 
+bei einem neuen 
+Spiel die Spieler-
+anzahl festgelegt
+werden muss.</t>
+  </si>
+  <si>
+    <t>Kunde
+(10.10.2018)</t>
   </si>
 </sst>
 </file>
@@ -504,7 +589,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,8 +627,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,8 +667,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -598,6 +690,8 @@
     <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -616,6 +710,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -894,7 +990,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E34"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,15 +1378,31 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
@@ -1522,15 +1634,31 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+    <row r="31" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
